--- a/day-2/sentiment/sentiment-bonus.xlsx
+++ b/day-2/sentiment/sentiment-bonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\xlgs-ame\day-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\xlgs-ame\day-2\sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD1125-548D-42DF-82C0-8DCD53E74F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217C37F4-1435-4302-B258-528E09ED870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="15" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3647,7 +3647,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C54FE974-D2F3-4671-9DF8-8F92837EA07A}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C54FE974-D2F3-4671-9DF8-8F92837EA07A}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -4046,7 +4046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B56DA39-CFA6-4C05-81E4-95BE9E764447}">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4245,7 +4245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
